--- a/public/excel/shinsei_test.xlsx
+++ b/public/excel/shinsei_test.xlsx
@@ -20,16 +20,16 @@
     <t>出張申請書</t>
   </si>
   <si>
+    <t>部署名</t>
+  </si>
+  <si>
     <t>システム開発部</t>
   </si>
   <si>
-    <t>部署名</t>
-  </si>
-  <si>
     <t>氏名</t>
   </si>
   <si>
-    <t>米村郁也</t>
+    <t>米村 郁也</t>
   </si>
   <si>
     <t>印</t>
@@ -307,62 +307,62 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="165" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="165" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,57 +665,57 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15.75" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="true" style="0"/>
-    <col min="2" max="2" width="14.42578125" style="0"/>
-    <col min="3" max="3" width="4.42578125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.140625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="14.28515625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.42578125" hidden="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="16.140625" customWidth="true" style="0"/>
     <col min="5" max="5" width="5.140625" customWidth="true" style="0"/>
     <col min="6" max="6" width="4.7109375" customWidth="true" style="0"/>
-    <col min="7" max="7" width="17.140625" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15" customWidth="true" style="0"/>
     <col min="8" max="8" width="7.85546875" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9.42578125" customWidth="true" style="0"/>
+    <col min="9" max="9" width="5.5703125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" customHeight="1" ht="12.75">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:26" customHeight="1" ht="15.75">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:26" customHeight="1" ht="15.75">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:26" customHeight="1" ht="28.5">
       <c r="A4" s="1"/>
@@ -725,10 +725,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="27"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -777,18 +775,18 @@
     </row>
     <row r="6" spans="1:26" customHeight="1" ht="28.5">
       <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -926,17 +924,17 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -959,16 +957,16 @@
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1000,8 +998,8 @@
       <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
@@ -1027,16 +1025,16 @@
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1059,16 +1057,16 @@
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1091,16 +1089,16 @@
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1120,23 +1118,23 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1156,25 +1154,25 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="19">
         <v>200</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1194,25 +1192,25 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="19">
         <v>14000</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1232,17 +1230,17 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="18"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1262,17 +1260,17 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1292,17 +1290,17 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1322,17 +1320,17 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1352,17 +1350,17 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A24" s="25"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="15"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1385,20 +1383,20 @@
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="32">
         <v>1500</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="14">
+      <c r="F25" s="17"/>
+      <c r="G25" s="19">
         <v>15000</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1421,16 +1419,16 @@
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="32">
         <v>20000</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="6" t="s">
         <v>32</v>
       </c>
@@ -1456,18 +1454,22 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:G17"/>
@@ -1476,29 +1478,25 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/public/excel/shinsei_test.xlsx
+++ b/public/excel/shinsei_test.xlsx
@@ -148,18 +148,18 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="18"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -307,6 +307,12 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -314,18 +320,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -345,24 +363,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,57 +665,57 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="15.75" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="15.75" defaultColWidth="14.28515625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="true" style="0"/>
-    <col min="2" max="2" width="14.28515625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.140625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.28515625" customWidth="true" style="0"/>
     <col min="3" max="3" width="4.42578125" hidden="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.140625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="5.140625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="4.7109375" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="7.85546875" customWidth="true" style="0"/>
-    <col min="9" max="9" width="5.5703125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="4.5703125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="4.5703125" customWidth="true" style="0"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" style="0"/>
+    <col min="8" max="8" width="7.28515625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="7.140625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" customHeight="1" ht="12.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:26" customHeight="1" ht="15.75">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:26" customHeight="1" ht="15.75">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:26" customHeight="1" ht="28.5">
       <c r="A4" s="1"/>
@@ -725,8 +725,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -777,16 +777,16 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -924,17 +924,17 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -957,16 +957,16 @@
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -998,8 +998,8 @@
       <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
@@ -1025,16 +1025,16 @@
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1057,16 +1057,16 @@
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1089,16 +1089,16 @@
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1118,23 +1118,23 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1154,25 +1154,25 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A18" s="28"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="14">
         <v>200</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1192,25 +1192,25 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A19" s="28"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="14">
         <v>14000</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1230,17 +1230,17 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A20" s="28"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="17"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1260,17 +1260,17 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A21" s="28"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="17"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1290,17 +1290,17 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A22" s="28"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="17"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1320,17 +1320,17 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A23" s="28"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="17"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1350,17 +1350,17 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" customHeight="1" ht="28.5">
-      <c r="A24" s="29"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1383,20 +1383,20 @@
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="19">
         <v>1500</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="19">
+      <c r="F25" s="15"/>
+      <c r="G25" s="14">
         <v>15000</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1419,16 +1419,16 @@
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="19">
         <v>20000</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="6" t="s">
         <v>32</v>
       </c>
@@ -1454,22 +1454,18 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B12:I12"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:G17"/>
@@ -1481,18 +1477,22 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
